--- a/data/statistical/filled_NaN_xlsx/河北省_NaN_filled_polynomial.xlsx
+++ b/data/statistical/filled_NaN_xlsx/河北省_NaN_filled_polynomial.xlsx
@@ -600,7 +600,7 @@
         <v>38</v>
       </c>
       <c r="E2">
-        <v>2640.789284780622</v>
+        <v>2640.78928501904</v>
       </c>
       <c r="F2">
         <v>5069.28</v>
@@ -609,85 +609,85 @@
         <v>5.28</v>
       </c>
       <c r="H2">
-        <v>33.99105972653342</v>
+        <v>33.99105972644611</v>
       </c>
       <c r="I2">
-        <v>3.886625386998276</v>
+        <v>3.886625387047388</v>
       </c>
       <c r="J2">
-        <v>18.11996025592089</v>
+        <v>18.1199603267014</v>
       </c>
       <c r="K2">
-        <v>27.4798661157256</v>
+        <v>27.47986611467786</v>
       </c>
       <c r="L2">
-        <v>1.656685661058873</v>
+        <v>1.656685661037045</v>
       </c>
       <c r="M2">
-        <v>214.5740702645853</v>
+        <v>214.5740702613257</v>
       </c>
       <c r="N2">
-        <v>146.621078432072</v>
+        <v>146.6210784303257</v>
       </c>
       <c r="O2">
-        <v>33.23681371286511</v>
+        <v>33.23681373521686</v>
       </c>
       <c r="P2">
-        <v>159.7301748701553</v>
+        <v>166.1300500618258</v>
       </c>
       <c r="Q2">
-        <v>99.99680688394484</v>
+        <v>99.99653822121768</v>
       </c>
       <c r="R2">
-        <v>20.94288182468154</v>
+        <v>20.94288182281889</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>-173949.1819224358</v>
       </c>
       <c r="T2">
-        <v>18862.83334541321</v>
+        <v>18862.83336305618</v>
       </c>
       <c r="U2">
-        <v>0.6331868129782379</v>
+        <v>0.6331868130582734</v>
       </c>
       <c r="V2">
-        <v>33.67574819689617</v>
+        <v>33.67574819317088</v>
       </c>
       <c r="W2">
-        <v>34.16320879227715</v>
+        <v>34.16320879050181</v>
       </c>
       <c r="X2">
-        <v>7355.955887794495</v>
+        <v>7355.955880761147</v>
       </c>
       <c r="Y2">
-        <v>95.09634867088501</v>
+        <v>77.20155369693791</v>
       </c>
       <c r="Z2">
-        <v>433716.4595275323</v>
+        <v>324246.415334216</v>
       </c>
       <c r="AA2">
-        <v>625.3321680091321</v>
+        <v>-403.3723775614053</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>1580929.113876343</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>2599270.957550049</v>
       </c>
       <c r="AD2">
-        <v>862.9877629876137</v>
+        <v>2899.124128162861</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>8527.484181102724</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>3147.64258358871</v>
       </c>
       <c r="AG2">
-        <v>238876.5383663177</v>
+        <v>-5292.762617855675</v>
       </c>
       <c r="AH2">
-        <v>39529.86292965196</v>
+        <v>659383.8220405579</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -713,13 +713,13 @@
         <v>5.16</v>
       </c>
       <c r="H3">
-        <v>35.20997225231986</v>
+        <v>35.20997225223982</v>
       </c>
       <c r="I3">
         <v>3.9</v>
       </c>
       <c r="J3">
-        <v>10.75241201370955</v>
+        <v>10.75241207703948</v>
       </c>
       <c r="K3">
         <v>25.1398222007747</v>
@@ -743,13 +743,13 @@
         <v>100</v>
       </c>
       <c r="R3">
-        <v>17.19328430388123</v>
+        <v>17.19328430155292</v>
       </c>
       <c r="S3">
         <v>77849.5</v>
       </c>
       <c r="T3">
-        <v>34346.08824443817</v>
+        <v>34346.08826398849</v>
       </c>
       <c r="U3">
         <v>1.07</v>
@@ -764,34 +764,34 @@
         <v>5556</v>
       </c>
       <c r="Y3">
-        <v>89.97251722845809</v>
+        <v>75.57214602268269</v>
       </c>
       <c r="Z3">
-        <v>322927.2002092747</v>
+        <v>261620.550720754</v>
       </c>
       <c r="AA3">
-        <v>532.6958043463528</v>
+        <v>-344.4318181304261</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>1298965.470436096</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>2170137.598724365</v>
       </c>
       <c r="AD3">
-        <v>594.1101404875517</v>
+        <v>1975.638113737106</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>3673.95561810912</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>2983.871659272456</v>
       </c>
       <c r="AG3">
-        <v>200663.2422027588</v>
+        <v>21263.80702786059</v>
       </c>
       <c r="AH3">
-        <v>29436.00954830122</v>
+        <v>550987.7961463928</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -817,13 +817,13 @@
         <v>5.79</v>
       </c>
       <c r="H4">
-        <v>36.45079240194173</v>
+        <v>36.45079240187624</v>
       </c>
       <c r="I4">
         <v>4</v>
       </c>
       <c r="J4">
-        <v>10.42958068102598</v>
+        <v>10.42958073876798</v>
       </c>
       <c r="K4">
         <v>21.3503066305088</v>
@@ -847,7 +847,7 @@
         <v>99.98</v>
       </c>
       <c r="R4">
-        <v>13.98735293326899</v>
+        <v>13.9873529302422</v>
       </c>
       <c r="S4">
         <v>99324.10000000001</v>
@@ -868,34 +868,34 @@
         <v>9605</v>
       </c>
       <c r="Y4">
-        <v>88.62553182042473</v>
+        <v>98.00109808937879</v>
       </c>
       <c r="Z4">
         <v>414133</v>
       </c>
       <c r="AA4">
-        <v>449.156343780458</v>
+        <v>-283.2410089457408</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>1049819.034675598</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>1786781.209823608</v>
       </c>
       <c r="AD4">
-        <v>382.3319185972214</v>
+        <v>1232.11363774538</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>3819.675893169549</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>1815.624847509077</v>
       </c>
       <c r="AG4">
-        <v>165770.0110244751</v>
+        <v>47195.21351556628</v>
       </c>
       <c r="AH4">
-        <v>41347.42809154798</v>
+        <v>453198.1202087402</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -927,7 +927,7 @@
         <v>3.9</v>
       </c>
       <c r="J5">
-        <v>17.15146626532078</v>
+        <v>17.15146631747484</v>
       </c>
       <c r="K5">
         <v>20.6485945519975</v>
@@ -972,34 +972,34 @@
         <v>11174</v>
       </c>
       <c r="Y5">
-        <v>80.39463210826497</v>
+        <v>76.58827236726412</v>
       </c>
       <c r="Z5">
         <v>304766</v>
       </c>
       <c r="AA5">
-        <v>374.7137863151729</v>
+        <v>-219.7999500129372</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>833489.8066253662</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>1449201.790878296</v>
       </c>
       <c r="AD5">
-        <v>227.6530973464251</v>
+        <v>668.5507003068924</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>7443.150805265313</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>2183.483704493092</v>
       </c>
       <c r="AG5">
-        <v>134196.8448324203</v>
+        <v>-10484.52678373482</v>
       </c>
       <c r="AH5">
-        <v>36034.13543134629</v>
+        <v>366014.7942199707</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -1076,34 +1076,34 @@
         <v>22312</v>
       </c>
       <c r="Y6">
-        <v>84.5029435081123</v>
+        <v>98.6419614361681</v>
       </c>
       <c r="Z6">
         <v>196188</v>
       </c>
       <c r="AA6">
-        <v>309.3681319467723</v>
+        <v>-154.1086413292214</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>649977.786277771</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>1157399.34185791</v>
       </c>
       <c r="AD6">
-        <v>130.0736766755581</v>
+        <v>284.9493013620377</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>1679.829892496661</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>3202.341491987091</v>
       </c>
       <c r="AG6">
-        <v>105943.7436237335</v>
+        <v>2077.168443051177</v>
       </c>
       <c r="AH6">
-        <v>31051.62883416983</v>
+        <v>289437.8181877136</v>
       </c>
     </row>
     <row r="7" spans="1:34">
@@ -1186,28 +1186,28 @@
         <v>235222</v>
       </c>
       <c r="AA7">
-        <v>253.1193806864321</v>
+        <v>-86.16708289273083</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>499282.9736328125</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>911373.8627929688</v>
       </c>
       <c r="AD7">
-        <v>89.5936566144228</v>
+        <v>81.30944091081619</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>1333.252724478772</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>4718.005449876299</v>
       </c>
       <c r="AG7">
-        <v>81010.70740318298</v>
+        <v>34703.22321412642</v>
       </c>
       <c r="AH7">
-        <v>39941.56904363119</v>
+        <v>223467.1920967102</v>
       </c>
     </row>
     <row r="8" spans="1:34">
@@ -1290,28 +1290,28 @@
         <v>345782</v>
       </c>
       <c r="AA8">
-        <v>205.9675325155258</v>
+        <v>-15.97527470719069</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>381405.3686828613</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>711125.3536682129</v>
       </c>
       <c r="AD8">
-        <v>106.213037148118</v>
+        <v>57.631118953228</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>5461.577741908053</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>2699.17026861257</v>
       </c>
       <c r="AG8">
-        <v>59397.73616790771</v>
+        <v>-5090.395635053585</v>
       </c>
       <c r="AH8">
-        <v>38308.75829846333</v>
+        <v>168102.9159698486</v>
       </c>
     </row>
     <row r="9" spans="1:34">
@@ -1394,28 +1394,28 @@
         <v>306373</v>
       </c>
       <c r="AA9">
-        <v>167.9125874452293</v>
+        <v>56.46678323112428</v>
       </c>
       <c r="AB9">
-        <v>37673.82221221924</v>
+        <v>296344.9714202881</v>
       </c>
       <c r="AC9">
-        <v>25145.5029630661</v>
+        <v>556653.8144836426</v>
       </c>
       <c r="AD9">
-        <v>179.9318183362484</v>
+        <v>213.9143355488777</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>1290.229421443256</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>4551.693877350113</v>
       </c>
       <c r="AG9">
-        <v>41104.82991790771</v>
+        <v>-3471.628873887507</v>
       </c>
       <c r="AH9">
-        <v>43945.24918614213</v>
+        <v>123344.9897918701</v>
       </c>
     </row>
     <row r="10" spans="1:34">
@@ -1498,28 +1498,28 @@
         <v>283878</v>
       </c>
       <c r="AA10">
-        <v>138.9545454718173</v>
+        <v>131.1590909175575</v>
       </c>
       <c r="AB10">
-        <v>86415.7068259716</v>
+        <v>244101.7818756104</v>
       </c>
       <c r="AC10">
-        <v>70303.46589946747</v>
+        <v>447959.2452392578</v>
       </c>
       <c r="AD10">
-        <v>310.750000089407</v>
+        <v>550.1590905785561</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>9389.380904018164</v>
       </c>
       <c r="AF10">
-        <v>833.0238093137741</v>
+        <v>897.257614340753</v>
       </c>
       <c r="AG10">
-        <v>26131.98865222931</v>
+        <v>6015.213240874047</v>
       </c>
       <c r="AH10">
-        <v>46176.06299849529</v>
+        <v>89193.41357040405</v>
       </c>
     </row>
     <row r="11" spans="1:34">
@@ -1602,28 +1602,28 @@
         <v>286423</v>
       </c>
       <c r="AA11">
-        <v>78</v>
+        <v>201</v>
       </c>
       <c r="AB11">
-        <v>118244</v>
+        <v>208645</v>
       </c>
       <c r="AC11">
-        <v>117252</v>
+        <v>284753</v>
       </c>
       <c r="AD11">
-        <v>485</v>
+        <v>686</v>
       </c>
       <c r="AE11">
-        <v>889</v>
+        <v>13235</v>
       </c>
       <c r="AF11">
-        <v>1785</v>
+        <v>4503</v>
       </c>
       <c r="AG11">
-        <v>4006</v>
+        <v>6745</v>
       </c>
       <c r="AH11">
-        <v>26658</v>
+        <v>46852</v>
       </c>
     </row>
     <row r="12" spans="1:34">
@@ -1706,28 +1706,28 @@
         <v>312360</v>
       </c>
       <c r="AA12">
-        <v>110</v>
+        <v>341</v>
       </c>
       <c r="AB12">
-        <v>154272</v>
+        <v>223916</v>
       </c>
       <c r="AC12">
-        <v>159434</v>
+        <v>382587</v>
       </c>
       <c r="AD12">
-        <v>780</v>
+        <v>1611</v>
       </c>
       <c r="AE12">
-        <v>779</v>
+        <v>942</v>
       </c>
       <c r="AF12">
-        <v>5294</v>
+        <v>1166</v>
       </c>
       <c r="AG12">
-        <v>6221</v>
+        <v>3198</v>
       </c>
       <c r="AH12">
-        <v>38010</v>
+        <v>65348</v>
       </c>
     </row>
     <row r="13" spans="1:34">
@@ -1810,28 +1810,28 @@
         <v>318737</v>
       </c>
       <c r="AA13">
-        <v>122</v>
+        <v>324</v>
       </c>
       <c r="AB13">
-        <v>216687</v>
+        <v>301380</v>
       </c>
       <c r="AC13">
-        <v>198076</v>
+        <v>409680</v>
       </c>
       <c r="AD13">
-        <v>928</v>
+        <v>2722</v>
       </c>
       <c r="AE13">
-        <v>1047</v>
+        <v>8218</v>
       </c>
       <c r="AF13">
-        <v>5911</v>
+        <v>3417</v>
       </c>
       <c r="AG13">
-        <v>7266</v>
+        <v>3184</v>
       </c>
       <c r="AH13">
-        <v>45065</v>
+        <v>72062</v>
       </c>
     </row>
     <row r="14" spans="1:34">
@@ -1914,28 +1914,28 @@
         <v>340042</v>
       </c>
       <c r="AA14">
-        <v>148</v>
+        <v>405</v>
       </c>
       <c r="AB14">
-        <v>297671</v>
+        <v>374669</v>
       </c>
       <c r="AC14">
-        <v>293819</v>
+        <v>524986</v>
       </c>
       <c r="AD14">
-        <v>1257</v>
+        <v>3775</v>
       </c>
       <c r="AE14">
-        <v>3807</v>
+        <v>3873</v>
       </c>
       <c r="AF14">
-        <v>6596</v>
+        <v>1259</v>
       </c>
       <c r="AG14">
-        <v>10915</v>
+        <v>4070</v>
       </c>
       <c r="AH14">
-        <v>51153</v>
+        <v>84571</v>
       </c>
     </row>
     <row r="15" spans="1:34">
@@ -2018,28 +2018,28 @@
         <v>366523</v>
       </c>
       <c r="AA15">
-        <v>167</v>
+        <v>535</v>
       </c>
       <c r="AB15">
-        <v>387330</v>
+        <v>512012</v>
       </c>
       <c r="AC15">
-        <v>343124</v>
+        <v>725672</v>
       </c>
       <c r="AD15">
-        <v>1899</v>
+        <v>4807</v>
       </c>
       <c r="AE15">
-        <v>4202</v>
+        <v>308</v>
       </c>
       <c r="AF15">
-        <v>4742</v>
+        <v>3887</v>
       </c>
       <c r="AG15">
-        <v>9468</v>
+        <v>5060</v>
       </c>
       <c r="AH15">
-        <v>48183</v>
+        <v>67831</v>
       </c>
     </row>
     <row r="16" spans="1:34">
@@ -2122,28 +2122,28 @@
         <v>583361</v>
       </c>
       <c r="AA16">
-        <v>182</v>
+        <v>654</v>
       </c>
       <c r="AB16">
-        <v>409416</v>
+        <v>635542</v>
       </c>
       <c r="AC16">
-        <v>390058</v>
+        <v>804959</v>
       </c>
       <c r="AD16">
-        <v>2603</v>
+        <v>7514</v>
       </c>
       <c r="AE16">
-        <v>3729</v>
+        <v>6282</v>
       </c>
       <c r="AF16">
-        <v>4341</v>
+        <v>6685</v>
       </c>
       <c r="AG16">
-        <v>7556</v>
+        <v>10735</v>
       </c>
       <c r="AH16">
-        <v>32259</v>
+        <v>70675</v>
       </c>
     </row>
     <row r="17" spans="1:34">
@@ -2178,10 +2178,10 @@
         <v>739.5112</v>
       </c>
       <c r="K17">
-        <v>10.94539132382488</v>
+        <v>10.94539132498903</v>
       </c>
       <c r="L17">
-        <v>2.242186377261532</v>
+        <v>2.242186377268808</v>
       </c>
       <c r="M17">
         <v>12.731918091081</v>
@@ -2226,28 +2226,28 @@
         <v>481271</v>
       </c>
       <c r="AA17">
-        <v>191</v>
+        <v>792</v>
       </c>
       <c r="AB17">
-        <v>430711.9</v>
+        <v>797670.4</v>
       </c>
       <c r="AC17">
-        <v>452909.7</v>
+        <v>1008100.1</v>
       </c>
       <c r="AD17">
-        <v>3106</v>
+        <v>9814</v>
       </c>
       <c r="AE17">
-        <v>3668</v>
+        <v>6574</v>
       </c>
       <c r="AF17">
-        <v>4621</v>
+        <v>352</v>
       </c>
       <c r="AG17">
-        <v>9552</v>
+        <v>11196</v>
       </c>
       <c r="AH17">
-        <v>41351</v>
+        <v>78562</v>
       </c>
     </row>
     <row r="18" spans="1:34">
@@ -2282,10 +2282,10 @@
         <v>833.6</v>
       </c>
       <c r="K18">
-        <v>11.72344792378135</v>
+        <v>11.72344792517833</v>
       </c>
       <c r="L18">
-        <v>2.092598769668257</v>
+        <v>2.092598769682809</v>
       </c>
       <c r="M18">
         <v>9.53166971533399</v>
@@ -2312,13 +2312,13 @@
         <v>15715</v>
       </c>
       <c r="U18">
-        <v>1.290901099069742</v>
+        <v>1.290901098909671</v>
       </c>
       <c r="V18">
         <v>98.2</v>
       </c>
       <c r="W18">
-        <v>109.0334945044015</v>
+        <v>109.033494505944</v>
       </c>
       <c r="X18">
         <v>6899</v>
@@ -2330,28 +2330,28 @@
         <v>600956</v>
       </c>
       <c r="AA18">
-        <v>159</v>
+        <v>803</v>
       </c>
       <c r="AB18">
-        <v>436338</v>
+        <v>991394.5</v>
       </c>
       <c r="AC18">
-        <v>503492.1</v>
+        <v>1181161.5</v>
       </c>
       <c r="AD18">
-        <v>3373</v>
+        <v>9263</v>
       </c>
       <c r="AE18">
-        <v>4289.3</v>
+        <v>2785.1</v>
       </c>
       <c r="AF18">
-        <v>3762.4</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="AG18">
-        <v>9452.200000000001</v>
+        <v>73304.89999999999</v>
       </c>
       <c r="AH18">
-        <v>42652.2</v>
+        <v>272535.9</v>
       </c>
     </row>
     <row r="19" spans="1:34">
@@ -2368,7 +2368,7 @@
         <v>51.6</v>
       </c>
       <c r="E19">
-        <v>18121.38928619027</v>
+        <v>18121.38928587735</v>
       </c>
       <c r="F19">
         <v>23483.0546</v>
@@ -2386,10 +2386,10 @@
         <v>868.9</v>
       </c>
       <c r="K19">
-        <v>12.73654888872989</v>
+        <v>12.73654889024328</v>
       </c>
       <c r="L19">
-        <v>1.919433538503654</v>
+        <v>1.919433538518206</v>
       </c>
       <c r="M19">
         <v>8.17381921188497</v>
@@ -2416,13 +2416,13 @@
         <v>6335</v>
       </c>
       <c r="U19">
-        <v>1.139274725457653</v>
+        <v>1.139274725261203</v>
       </c>
       <c r="V19">
         <v>98.3</v>
       </c>
       <c r="W19">
-        <v>114.7622692294826</v>
+        <v>114.7622692312289</v>
       </c>
       <c r="X19">
         <v>6190</v>
@@ -2434,28 +2434,28 @@
         <v>520644</v>
       </c>
       <c r="AA19">
-        <v>293</v>
+        <v>861</v>
       </c>
       <c r="AB19">
-        <v>340203.1</v>
+        <v>1137852.1</v>
       </c>
       <c r="AC19">
-        <v>497991.7</v>
+        <v>1301222.6</v>
       </c>
       <c r="AD19">
-        <v>3716</v>
+        <v>8902</v>
       </c>
       <c r="AE19">
-        <v>1291</v>
+        <v>1083.9</v>
       </c>
       <c r="AF19">
-        <v>985</v>
+        <v>3205.69240001218</v>
       </c>
       <c r="AG19">
-        <v>37343.3</v>
+        <v>13340.1</v>
       </c>
       <c r="AH19">
-        <v>25268.3</v>
+        <v>240842.4</v>
       </c>
     </row>
     <row r="20" spans="1:34">
@@ -2472,7 +2472,7 @@
         <v>51</v>
       </c>
       <c r="E20">
-        <v>19434.30903407931</v>
+        <v>19434.30903373659</v>
       </c>
       <c r="F20">
         <v>23167.4393</v>
@@ -2490,10 +2490,10 @@
         <v>931.3769</v>
       </c>
       <c r="K20">
-        <v>13.98469421867048</v>
+        <v>13.98469422035851</v>
       </c>
       <c r="L20">
-        <v>1.722690683745896</v>
+        <v>1.722690683760447</v>
       </c>
       <c r="M20">
         <v>4.4673541417117</v>
@@ -2520,13 +2520,13 @@
         <v>5155</v>
       </c>
       <c r="U20">
-        <v>0.9649738204898313</v>
+        <v>0.9649738202715525</v>
       </c>
       <c r="V20">
         <v>98.5</v>
       </c>
       <c r="W20">
-        <v>120.6145006449951</v>
+        <v>120.6145006468869</v>
       </c>
       <c r="X20">
         <v>5418</v>
@@ -2538,28 +2538,28 @@
         <v>446772</v>
       </c>
       <c r="AA20">
-        <v>321</v>
+        <v>995</v>
       </c>
       <c r="AB20">
-        <v>585337</v>
+        <v>1532445</v>
       </c>
       <c r="AC20">
-        <v>674165</v>
+        <v>1768858</v>
       </c>
       <c r="AD20">
-        <v>4464</v>
+        <v>13735</v>
       </c>
       <c r="AE20">
-        <v>514</v>
+        <v>8659</v>
       </c>
       <c r="AF20">
-        <v>0</v>
+        <v>3517.52557055312</v>
       </c>
       <c r="AG20">
-        <v>46324</v>
+        <v>17196</v>
       </c>
       <c r="AH20">
-        <v>21852</v>
+        <v>330408</v>
       </c>
     </row>
     <row r="21" spans="1:34">
@@ -2576,7 +2576,7 @@
         <v>49.5075</v>
       </c>
       <c r="E21">
-        <v>20791.92836178839</v>
+        <v>20791.92836137116</v>
       </c>
       <c r="F21">
         <v>24192.4</v>
@@ -2594,25 +2594,25 @@
         <v>992.1041</v>
       </c>
       <c r="K21">
-        <v>15.46788391348673</v>
+        <v>15.46788391534938</v>
       </c>
       <c r="L21">
-        <v>1.50237020541681</v>
+        <v>1.502370205424086</v>
       </c>
       <c r="M21">
         <v>4.22502189210688</v>
       </c>
       <c r="N21">
-        <v>131.4289215669269</v>
+        <v>131.4289215684403</v>
       </c>
       <c r="O21">
-        <v>114.5250490237959</v>
+        <v>114.5250489963219</v>
       </c>
       <c r="P21">
         <v>216.6</v>
       </c>
       <c r="Q21">
-        <v>100.0027202946197</v>
+        <v>100.001474578328</v>
       </c>
       <c r="R21">
         <v>42.9</v>
@@ -2621,49 +2621,49 @@
         <v>2608024</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>-41361.82357263565</v>
       </c>
       <c r="U21">
-        <v>0.767998384180828</v>
+        <v>0.7679983839188935</v>
       </c>
       <c r="V21">
         <v>99.09999999999999</v>
       </c>
       <c r="W21">
-        <v>126.5901887508226</v>
+        <v>126.590188752918</v>
       </c>
       <c r="X21">
-        <v>0</v>
+        <v>-2653.828429222107</v>
       </c>
       <c r="Y21">
-        <v>82.23080692719266</v>
+        <v>81.16868054555789</v>
       </c>
       <c r="Z21">
         <v>181389</v>
       </c>
       <c r="AA21">
-        <v>382</v>
+        <v>1080</v>
       </c>
       <c r="AB21">
-        <v>473430</v>
+        <v>1945451</v>
       </c>
       <c r="AC21">
-        <v>675328</v>
+        <v>2340261</v>
       </c>
       <c r="AD21">
-        <v>5528</v>
+        <v>15233</v>
       </c>
       <c r="AE21">
-        <v>358</v>
+        <v>3620</v>
       </c>
       <c r="AF21">
-        <v>0</v>
+        <v>2254</v>
       </c>
       <c r="AG21">
-        <v>105015</v>
+        <v>69993</v>
       </c>
       <c r="AH21">
-        <v>29701</v>
+        <v>477229</v>
       </c>
     </row>
     <row r="22" spans="1:34">
@@ -2680,7 +2680,7 @@
         <v>49.3504</v>
       </c>
       <c r="E22">
-        <v>22194.24726934731</v>
+        <v>22194.24726887047</v>
       </c>
       <c r="F22">
         <v>25071.2884</v>
@@ -2692,82 +2692,82 @@
         <v>61.65</v>
       </c>
       <c r="I22">
-        <v>3.069783281782293</v>
+        <v>3.069783281720447</v>
       </c>
       <c r="J22">
-        <v>1209.265208780766</v>
+        <v>1209.265208723024</v>
       </c>
       <c r="K22">
-        <v>17.18611797317863</v>
+        <v>17.18611797521589</v>
       </c>
       <c r="L22">
-        <v>1.258472103494569</v>
+        <v>1.258472103509121</v>
       </c>
       <c r="M22">
-        <v>11.98509176867083</v>
+        <v>11.98509177472442</v>
       </c>
       <c r="N22">
-        <v>134.4582817315822</v>
+        <v>134.4582817335613</v>
       </c>
       <c r="O22">
-        <v>134.9268292090856</v>
+        <v>134.9268291774206</v>
       </c>
       <c r="P22">
-        <v>140.7193891843723</v>
+        <v>113.6254478927824</v>
       </c>
       <c r="Q22">
-        <v>99.99750034841423</v>
+        <v>100.0033473234639</v>
       </c>
       <c r="R22">
-        <v>49.24749999772757</v>
+        <v>49.24750000843778</v>
       </c>
       <c r="S22">
         <v>2425939</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>-65257.06867694855</v>
       </c>
       <c r="U22">
-        <v>0.5483484165088157</v>
+        <v>0.5483484162105015</v>
       </c>
       <c r="V22">
-        <v>92.54732714407146</v>
+        <v>92.54732714709826</v>
       </c>
       <c r="W22">
-        <v>132.6893335470813</v>
+        <v>132.6893335492932</v>
       </c>
       <c r="X22">
-        <v>0</v>
+        <v>-6267.498707532883</v>
       </c>
       <c r="Y22">
-        <v>87.64444487995578</v>
+        <v>100.34942634433</v>
       </c>
       <c r="Z22">
-        <v>299864.0694697767</v>
+        <v>416230.4536152263</v>
       </c>
       <c r="AA22">
-        <v>567</v>
+        <v>1228</v>
       </c>
       <c r="AB22">
-        <v>721131.9</v>
+        <v>2138739.2</v>
       </c>
       <c r="AC22">
-        <v>787770.6</v>
+        <v>2827911.4</v>
       </c>
       <c r="AD22">
-        <v>6578</v>
+        <v>20273</v>
       </c>
       <c r="AE22">
-        <v>0</v>
+        <v>3394.6</v>
       </c>
       <c r="AF22">
-        <v>0</v>
+        <v>1098.1</v>
       </c>
       <c r="AG22">
-        <v>101087.4</v>
+        <v>14779.9</v>
       </c>
       <c r="AH22">
-        <v>53574.7</v>
+        <v>460293.1</v>
       </c>
     </row>
     <row r="23" spans="1:34">
@@ -2784,94 +2784,94 @@
         <v>52.4</v>
       </c>
       <c r="E23">
-        <v>23641.26575669646</v>
+        <v>23641.26575618982</v>
       </c>
       <c r="F23">
-        <v>27993.9809935689</v>
+        <v>27993.98099289834</v>
       </c>
       <c r="G23">
         <v>-2.8</v>
       </c>
       <c r="H23">
-        <v>64.18882377465343</v>
+        <v>64.18882377472619</v>
       </c>
       <c r="I23">
-        <v>2.967455108417198</v>
+        <v>2.967455108348076</v>
       </c>
       <c r="J23">
-        <v>1342.791998786852</v>
+        <v>1342.791998723522</v>
       </c>
       <c r="K23">
-        <v>19.13939639786258</v>
+        <v>19.13939640007447</v>
       </c>
       <c r="L23">
         <v>0.9909963780010003</v>
       </c>
       <c r="M23">
-        <v>15.75346127478406</v>
+        <v>15.75346128223464</v>
       </c>
       <c r="N23">
-        <v>137.8705366333015</v>
+        <v>137.8705366352806</v>
       </c>
       <c r="O23">
-        <v>156.9409545944072</v>
+        <v>156.940954560414</v>
       </c>
       <c r="P23">
-        <v>200.5241710589463</v>
+        <v>144.1230113654873</v>
       </c>
       <c r="Q23">
-        <v>99.99730998216424</v>
+        <v>100.0036063498922</v>
       </c>
       <c r="R23">
-        <v>56.37122548674233</v>
+        <v>56.37122549884953</v>
       </c>
       <c r="S23">
-        <v>2731338.557025433</v>
+        <v>2731338.557022572</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>-91224.86641311646</v>
       </c>
       <c r="U23">
-        <v>0.3060239174810704</v>
+        <v>0.3060239171609282</v>
       </c>
       <c r="V23">
-        <v>89.29415686591528</v>
+        <v>89.29415686917491</v>
       </c>
       <c r="W23">
-        <v>138.911935033655</v>
+        <v>138.9119350360415</v>
       </c>
       <c r="X23">
-        <v>0</v>
+        <v>-10189.85293829441</v>
       </c>
       <c r="Y23">
-        <v>90.24216656748673</v>
+        <v>80.65554202541995</v>
       </c>
       <c r="Z23">
-        <v>354132.8712639657</v>
+        <v>393523.3066339892</v>
       </c>
       <c r="AA23">
-        <v>590.318181861192</v>
+        <v>1306.931818190031</v>
       </c>
       <c r="AB23">
-        <v>653039.3113603592</v>
+        <v>2551306.218322754</v>
       </c>
       <c r="AC23">
-        <v>839221.3341088295</v>
+        <v>3200634.109695435</v>
       </c>
       <c r="AD23">
-        <v>7207.431818380952</v>
+        <v>21297.84091073275</v>
       </c>
       <c r="AE23">
-        <v>0</v>
+        <v>1182.972553565571</v>
       </c>
       <c r="AF23">
-        <v>0</v>
+        <v>4564.96971046477</v>
       </c>
       <c r="AG23">
-        <v>133610.9659118652</v>
+        <v>35528.57280250279</v>
       </c>
       <c r="AH23">
-        <v>40792.86253780348</v>
+        <v>610400.7683296204</v>
       </c>
     </row>
   </sheetData>
